--- a/target/test-classes/outputData.xlsx
+++ b/target/test-classes/outputData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="25">
   <si>
     <t>Item Name</t>
   </si>

--- a/target/test-classes/outputData.xlsx
+++ b/target/test-classes/outputData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="25">
   <si>
     <t>Item Name</t>
   </si>
@@ -165,10 +165,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
